--- a/data/statistical/filled_NaN_xlsx/安徽省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/安徽省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>44.3</v>
       </c>
       <c r="E2">
-        <v>2195.001784846187</v>
+        <v>2195.001785442233</v>
       </c>
       <c r="F2">
         <v>4736.52</v>
@@ -609,85 +609,85 @@
         <v>6.03</v>
       </c>
       <c r="H2">
-        <v>38.00107069272781</v>
+        <v>38.00107069245132</v>
       </c>
       <c r="I2">
-        <v>4.395252837954104</v>
+        <v>4.395252837981388</v>
       </c>
       <c r="J2">
-        <v>187.3413821198046</v>
+        <v>187.3413821011782</v>
       </c>
       <c r="K2">
-        <v>39.70048683346249</v>
+        <v>39.70048682892229</v>
       </c>
       <c r="L2">
-        <v>1.416338159887069</v>
+        <v>1.227250378957063</v>
       </c>
       <c r="M2">
         <v>135.0910694207996</v>
       </c>
       <c r="N2">
-        <v>210.5284313738812</v>
+        <v>210.5284313743468</v>
       </c>
       <c r="O2">
-        <v>32.1829638229683</v>
+        <v>32.1829638518393</v>
       </c>
       <c r="P2">
-        <v>129.5391869234829</v>
+        <v>148.2055662979789</v>
       </c>
       <c r="Q2">
-        <v>99.63897058823204</v>
+        <v>99.63897058820294</v>
       </c>
       <c r="R2">
         <v>22.61848295968957</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-56947.06122589111</v>
       </c>
       <c r="T2">
-        <v>46439.4109249115</v>
+        <v>46439.41092157364</v>
       </c>
       <c r="U2">
-        <v>0.3068791208388575</v>
+        <v>0.3068791208497714</v>
       </c>
       <c r="V2">
-        <v>32.30234262160957</v>
+        <v>32.30234262696467</v>
       </c>
       <c r="W2">
-        <v>8.06589010800235</v>
+        <v>8.065890108933672</v>
       </c>
       <c r="X2">
-        <v>31775.6571527124</v>
+        <v>109884.1188311699</v>
       </c>
       <c r="Y2">
-        <v>81.32519779889844</v>
+        <v>81.32519779878203</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-48685.9336977005</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>738.3356647063047</v>
       </c>
       <c r="AB2">
-        <v>1580929.113685608</v>
+        <v>2438656.330963135</v>
       </c>
       <c r="AC2">
-        <v>2599270.957397461</v>
+        <v>3912864.992263794</v>
       </c>
       <c r="AD2">
-        <v>2899.12412750721</v>
+        <v>11853.63113415241</v>
       </c>
       <c r="AE2">
-        <v>5319.516133482394</v>
+        <v>66264.37818333201</v>
       </c>
       <c r="AF2">
-        <v>3073.37283929795</v>
+        <v>17499.08666327037</v>
       </c>
       <c r="AG2">
-        <v>14069.41409356171</v>
+        <v>90162.78191653032</v>
       </c>
       <c r="AH2">
-        <v>659383.8220748901</v>
+        <v>55992.50746597614</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>5.95</v>
       </c>
       <c r="H3">
-        <v>38.70176083694969</v>
+        <v>38.70176083673141</v>
       </c>
       <c r="I3">
         <v>4.1</v>
       </c>
       <c r="J3">
-        <v>141.2079104818404</v>
+        <v>141.2079104706645</v>
       </c>
       <c r="K3">
         <v>36.4507659758864</v>
@@ -743,13 +743,13 @@
         <v>100</v>
       </c>
       <c r="R3">
-        <v>18.42264704871923</v>
+        <v>18.4226470477879</v>
       </c>
       <c r="S3">
         <v>37641.9</v>
       </c>
       <c r="T3">
-        <v>54578.69285774231</v>
+        <v>54578.69285345078</v>
       </c>
       <c r="U3">
         <v>0.71</v>
@@ -764,34 +764,34 @@
         <v>6990</v>
       </c>
       <c r="Y3">
-        <v>83.06514834886184</v>
+        <v>83.06514834897825</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-26182.93627738953</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>665.0839164033532</v>
       </c>
       <c r="AB3">
-        <v>1298965.47026825</v>
+        <v>2133275.845306396</v>
       </c>
       <c r="AC3">
-        <v>2170137.598587036</v>
+        <v>3432818.638381958</v>
       </c>
       <c r="AD3">
-        <v>1975.63811314106</v>
+        <v>9588.718544602394</v>
       </c>
       <c r="AE3">
-        <v>5129.2966393115</v>
+        <v>89583.34991385904</v>
       </c>
       <c r="AF3">
-        <v>1703.318938327513</v>
+        <v>17469.8355982681</v>
       </c>
       <c r="AG3">
-        <v>9212.324479572928</v>
+        <v>-11156.18773198718</v>
       </c>
       <c r="AH3">
-        <v>550987.7961807251</v>
+        <v>40088.59622956081</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>6.12</v>
       </c>
       <c r="H4">
-        <v>39.44757353019668</v>
+        <v>39.4475735300075</v>
       </c>
       <c r="I4">
         <v>4.2</v>
       </c>
       <c r="J4">
-        <v>104.4080442786217</v>
+        <v>104.4080442674458</v>
       </c>
       <c r="K4">
         <v>29.6260810367868</v>
@@ -847,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>14.80970587395132</v>
+        <v>14.80970587255433</v>
       </c>
       <c r="S4">
         <v>35006.8</v>
@@ -868,34 +868,34 @@
         <v>7362</v>
       </c>
       <c r="Y4">
-        <v>84.63979670108529</v>
+        <v>84.6397967012017</v>
       </c>
       <c r="Z4">
         <v>54364</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>596.8271730989218</v>
       </c>
       <c r="AB4">
-        <v>1049819.034545898</v>
+        <v>1862046.853973389</v>
       </c>
       <c r="AC4">
-        <v>1786781.209716797</v>
+        <v>3002189.380813599</v>
       </c>
       <c r="AD4">
-        <v>1232.113637328148</v>
+        <v>7674.931329727173</v>
       </c>
       <c r="AE4">
-        <v>1889.046768054524</v>
+        <v>22232.94863127429</v>
       </c>
       <c r="AF4">
-        <v>1611.760271097164</v>
+        <v>25578.64827435644</v>
       </c>
       <c r="AG4">
-        <v>23276.85244349293</v>
+        <v>51288.57184024753</v>
       </c>
       <c r="AH4">
-        <v>453198.1202392578</v>
+        <v>72624.1909400468</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.4</v>
       </c>
       <c r="J5">
-        <v>76.94178349897265</v>
+        <v>76.94178348779678</v>
       </c>
       <c r="K5">
         <v>27.7217359448391</v>
@@ -942,7 +942,7 @@
         <v>190</v>
       </c>
       <c r="O5">
-        <v>10.00547997979447</v>
+        <v>10.00548000074923</v>
       </c>
       <c r="P5">
         <v>151.2</v>
@@ -972,34 +972,34 @@
         <v>6248</v>
       </c>
       <c r="Y5">
-        <v>86.04914285545237</v>
+        <v>86.049142855627</v>
       </c>
       <c r="Z5">
         <v>36095</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>533.5654347930104</v>
       </c>
       <c r="AB5">
-        <v>833489.8065261841</v>
+        <v>1624969.35697937</v>
       </c>
       <c r="AC5">
-        <v>1449201.790786743</v>
+        <v>2620977.219482422</v>
       </c>
       <c r="AD5">
-        <v>668.5506999492645</v>
+        <v>6112.269489765167</v>
       </c>
       <c r="AE5">
-        <v>2911.351200663204</v>
+        <v>75421.81519092244</v>
       </c>
       <c r="AF5">
-        <v>3010.135414618728</v>
+        <v>18304.76024223822</v>
       </c>
       <c r="AG5">
-        <v>14340.89487498985</v>
+        <v>61849.52586208052</v>
       </c>
       <c r="AH5">
-        <v>366014.7942504883</v>
+        <v>101474.7765052204</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>8602</v>
       </c>
       <c r="Y6">
-        <v>87.29318681184668</v>
+        <v>87.29318681219593</v>
       </c>
       <c r="Z6">
         <v>3402</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>475.2987014856189</v>
       </c>
       <c r="AB6">
-        <v>649977.7861862183</v>
+        <v>1422043.354309082</v>
       </c>
       <c r="AC6">
-        <v>1157399.341812134</v>
+        <v>2289182.154449463</v>
       </c>
       <c r="AD6">
-        <v>284.9493011236191</v>
+        <v>4900.733024597168</v>
       </c>
       <c r="AE6">
-        <v>3311.279267039044</v>
+        <v>41602.5926252954</v>
       </c>
       <c r="AF6">
-        <v>2577.034620894688</v>
+        <v>33628.69924143477</v>
       </c>
       <c r="AG6">
-        <v>19791.51823049819</v>
+        <v>51628.22862011902</v>
       </c>
       <c r="AH6">
-        <v>289437.8182220459</v>
+        <v>88441.54732541666</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>31857</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>422.0269731786102</v>
       </c>
       <c r="AB7">
-        <v>499282.9735565186</v>
+        <v>1253268.845977783</v>
       </c>
       <c r="AC7">
-        <v>911373.8627624512</v>
+        <v>2006804.185684204</v>
       </c>
       <c r="AD7">
-        <v>81.30944073200226</v>
+        <v>4040.321934223175</v>
       </c>
       <c r="AE7">
-        <v>2045.98002546818</v>
+        <v>72657.19634555533</v>
       </c>
       <c r="AF7">
-        <v>3299.4945893616</v>
+        <v>14790.09793906593</v>
       </c>
       <c r="AG7">
-        <v>2918.762815108743</v>
+        <v>22562.93245838647</v>
       </c>
       <c r="AH7">
-        <v>223467.1921386719</v>
+        <v>77272.33123223258</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>34115</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>373.7502498645335</v>
       </c>
       <c r="AB8">
-        <v>381405.3686294556</v>
+        <v>1118645.831954956</v>
       </c>
       <c r="AC8">
-        <v>711125.3536376953</v>
+        <v>1773843.313217163</v>
       </c>
       <c r="AD8">
-        <v>57.63111889362335</v>
+        <v>3531.03621840477</v>
       </c>
       <c r="AE8">
-        <v>4670.246136835547</v>
+        <v>15080.40202873787</v>
       </c>
       <c r="AF8">
-        <v>2525.280964735338</v>
+        <v>6513.801155756275</v>
       </c>
       <c r="AG8">
-        <v>13950.20546669994</v>
+        <v>24615.45367091867</v>
       </c>
       <c r="AH8">
-        <v>168102.9160041809</v>
+        <v>62486.97532006795</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>68952</v>
       </c>
       <c r="AA9">
-        <v>56.46678322646767</v>
+        <v>330.4685315527022</v>
       </c>
       <c r="AB9">
-        <v>296344.9713897705</v>
+        <v>1018174.312271118</v>
       </c>
       <c r="AC9">
-        <v>556653.814453125</v>
+        <v>1590299.537017822</v>
       </c>
       <c r="AD9">
-        <v>213.9143354892731</v>
+        <v>3372.87587761879</v>
       </c>
       <c r="AE9">
-        <v>5493.292389140611</v>
+        <v>63723.42951254985</v>
       </c>
       <c r="AF9">
-        <v>1989.398203090758</v>
+        <v>10786.88590864899</v>
       </c>
       <c r="AG9">
-        <v>26211.83443580084</v>
+        <v>55047.31354093667</v>
       </c>
       <c r="AH9">
-        <v>123344.9898300171</v>
+        <v>79081.30717378861</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>48711</v>
       </c>
       <c r="AA10">
-        <v>131.1590909166262</v>
+        <v>292.1818182412535</v>
       </c>
       <c r="AB10">
-        <v>244101.7818450928</v>
+        <v>951854.2869110107</v>
       </c>
       <c r="AC10">
-        <v>447959.245223999</v>
+        <v>1456172.857147217</v>
       </c>
       <c r="AD10">
-        <v>550.1590906381607</v>
+        <v>3565.840911626816</v>
       </c>
       <c r="AE10">
-        <v>5464.731538681621</v>
+        <v>87952.53977121004</v>
       </c>
       <c r="AF10">
-        <v>2563.756315611065</v>
+        <v>6846.347766326362</v>
       </c>
       <c r="AG10">
-        <v>3677.68967357995</v>
+        <v>-17110.28892200676</v>
       </c>
       <c r="AH10">
-        <v>89193.41360092163</v>
+        <v>95056.88919857606</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>45629</v>
       </c>
       <c r="AA11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AB11">
-        <v>208645</v>
+        <v>717383</v>
       </c>
       <c r="AC11">
-        <v>284753</v>
+        <v>1147739</v>
       </c>
       <c r="AD11">
-        <v>686</v>
+        <v>3596</v>
       </c>
       <c r="AE11">
-        <v>13235</v>
+        <v>65658</v>
       </c>
       <c r="AF11">
-        <v>4503</v>
+        <v>16268</v>
       </c>
       <c r="AG11">
-        <v>6745</v>
+        <v>14481</v>
       </c>
       <c r="AH11">
-        <v>46852</v>
+        <v>94274</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>43786</v>
       </c>
       <c r="AA12">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="AB12">
-        <v>223916</v>
+        <v>907644</v>
       </c>
       <c r="AC12">
-        <v>382587</v>
+        <v>1320820</v>
       </c>
       <c r="AD12">
-        <v>1611</v>
+        <v>4953</v>
       </c>
       <c r="AE12">
-        <v>942</v>
+        <v>70135</v>
       </c>
       <c r="AF12">
-        <v>1166</v>
+        <v>3308</v>
       </c>
       <c r="AG12">
-        <v>3198</v>
+        <v>6492</v>
       </c>
       <c r="AH12">
-        <v>65348</v>
+        <v>126229</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>172086</v>
       </c>
       <c r="AA13">
-        <v>324</v>
+        <v>207</v>
       </c>
       <c r="AB13">
-        <v>301380</v>
+        <v>1061501</v>
       </c>
       <c r="AC13">
-        <v>409680</v>
+        <v>1421741</v>
       </c>
       <c r="AD13">
-        <v>2722</v>
+        <v>5359</v>
       </c>
       <c r="AE13">
-        <v>8218</v>
+        <v>44133</v>
       </c>
       <c r="AF13">
-        <v>3417</v>
+        <v>14319</v>
       </c>
       <c r="AG13">
-        <v>3184</v>
+        <v>16630</v>
       </c>
       <c r="AH13">
-        <v>72062</v>
+        <v>53959</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>157745</v>
       </c>
       <c r="AA14">
-        <v>405</v>
+        <v>173</v>
       </c>
       <c r="AB14">
-        <v>374669</v>
+        <v>1274063</v>
       </c>
       <c r="AC14">
-        <v>524986</v>
+        <v>1749834</v>
       </c>
       <c r="AD14">
-        <v>3775</v>
+        <v>8407</v>
       </c>
       <c r="AE14">
-        <v>3873</v>
+        <v>39097</v>
       </c>
       <c r="AF14">
-        <v>1259</v>
+        <v>32514</v>
       </c>
       <c r="AG14">
-        <v>4070</v>
+        <v>32696</v>
       </c>
       <c r="AH14">
-        <v>84571</v>
+        <v>32021</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>236941</v>
       </c>
       <c r="AA15">
-        <v>535</v>
+        <v>185</v>
       </c>
       <c r="AB15">
-        <v>512012</v>
+        <v>1282252</v>
       </c>
       <c r="AC15">
-        <v>725672</v>
+        <v>1655056</v>
       </c>
       <c r="AD15">
-        <v>4807</v>
+        <v>10987</v>
       </c>
       <c r="AE15">
-        <v>308</v>
+        <v>18198</v>
       </c>
       <c r="AF15">
-        <v>3887</v>
+        <v>30939</v>
       </c>
       <c r="AG15">
-        <v>5060</v>
+        <v>23964</v>
       </c>
       <c r="AH15">
-        <v>67831</v>
+        <v>46296</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>128042</v>
       </c>
       <c r="AA16">
-        <v>654</v>
+        <v>163</v>
       </c>
       <c r="AB16">
-        <v>635542</v>
+        <v>1338172</v>
       </c>
       <c r="AC16">
-        <v>804959</v>
+        <v>1819155</v>
       </c>
       <c r="AD16">
-        <v>7514</v>
+        <v>13930</v>
       </c>
       <c r="AE16">
-        <v>6282</v>
+        <v>24501</v>
       </c>
       <c r="AF16">
-        <v>6685</v>
+        <v>16116</v>
       </c>
       <c r="AG16">
-        <v>10735</v>
+        <v>7330</v>
       </c>
       <c r="AH16">
-        <v>70675</v>
+        <v>19265</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>562.7412</v>
       </c>
       <c r="K17">
-        <v>13.26301610399969</v>
+        <v>13.26301610842347</v>
       </c>
       <c r="L17">
-        <v>1.242551833755255</v>
+        <v>1.284166322466004</v>
       </c>
       <c r="M17">
         <v>7.23195647346214</v>
@@ -2226,28 +2226,28 @@
         <v>144926</v>
       </c>
       <c r="AA17">
-        <v>792</v>
+        <v>160</v>
       </c>
       <c r="AB17">
-        <v>797670.4</v>
+        <v>1449216.7</v>
       </c>
       <c r="AC17">
-        <v>1008100.1</v>
+        <v>1827483.7</v>
       </c>
       <c r="AD17">
-        <v>9814</v>
+        <v>15553</v>
       </c>
       <c r="AE17">
-        <v>6574</v>
+        <v>24037</v>
       </c>
       <c r="AF17">
-        <v>352</v>
+        <v>4908</v>
       </c>
       <c r="AG17">
-        <v>11196</v>
+        <v>4779</v>
       </c>
       <c r="AH17">
-        <v>78562</v>
+        <v>48950</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>710.2</v>
       </c>
       <c r="K18">
-        <v>14.40924448950682</v>
+        <v>14.40924449439626</v>
       </c>
       <c r="L18">
-        <v>1.226549928810202</v>
+        <v>1.493695210595023</v>
       </c>
       <c r="M18">
         <v>5.42120091365896</v>
@@ -2312,13 +2312,13 @@
         <v>20716</v>
       </c>
       <c r="U18">
-        <v>2.076021978027711</v>
+        <v>2.076021977954952</v>
       </c>
       <c r="V18">
         <v>97.7</v>
       </c>
       <c r="W18">
-        <v>112.3144615384517</v>
+        <v>112.3144615340279</v>
       </c>
       <c r="X18">
         <v>26038</v>
@@ -2330,28 +2330,28 @@
         <v>138493</v>
       </c>
       <c r="AA18">
-        <v>803</v>
+        <v>154</v>
       </c>
       <c r="AB18">
-        <v>991394.5</v>
+        <v>1273159.3</v>
       </c>
       <c r="AC18">
-        <v>1181161.5</v>
+        <v>1833865.1</v>
       </c>
       <c r="AD18">
-        <v>9263</v>
+        <v>16204</v>
       </c>
       <c r="AE18">
-        <v>2785.1</v>
+        <v>107435.1</v>
       </c>
       <c r="AF18">
-        <v>82.90000000000001</v>
+        <v>34773.9</v>
       </c>
       <c r="AG18">
-        <v>73304.89999999999</v>
+        <v>91794.10000000001</v>
       </c>
       <c r="AH18">
-        <v>272535.9</v>
+        <v>46715.4</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>51.5</v>
       </c>
       <c r="E19">
-        <v>19385.67678619921</v>
+        <v>19385.67678557336</v>
       </c>
       <c r="F19">
         <v>23781.5382</v>
@@ -2386,10 +2386,10 @@
         <v>735.4</v>
       </c>
       <c r="K19">
-        <v>15.91906367929187</v>
+        <v>15.91906368476339</v>
       </c>
       <c r="L19">
-        <v>1.314694370760652</v>
+        <v>1.532953829856614</v>
       </c>
       <c r="M19">
         <v>4.06914052332841</v>
@@ -2416,13 +2416,13 @@
         <v>807</v>
       </c>
       <c r="U19">
-        <v>2.05513736264038</v>
+        <v>2.055137362545793</v>
       </c>
       <c r="V19">
         <v>97.09999999999999</v>
       </c>
       <c r="W19">
-        <v>116.0253131863428</v>
+        <v>116.0253131809877</v>
       </c>
       <c r="X19">
         <v>28204</v>
@@ -2434,28 +2434,28 @@
         <v>138746</v>
       </c>
       <c r="AA19">
-        <v>861</v>
+        <v>172</v>
       </c>
       <c r="AB19">
-        <v>1137852.1</v>
+        <v>1635418.6</v>
       </c>
       <c r="AC19">
-        <v>1301222.6</v>
+        <v>2233343.2</v>
       </c>
       <c r="AD19">
-        <v>8902</v>
+        <v>20036</v>
       </c>
       <c r="AE19">
-        <v>1083.9</v>
+        <v>111063.3</v>
       </c>
       <c r="AF19">
-        <v>3205.692400012183</v>
+        <v>47119.7</v>
       </c>
       <c r="AG19">
-        <v>13340.1</v>
+        <v>127663.1</v>
       </c>
       <c r="AH19">
-        <v>240842.4</v>
+        <v>120472.5</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>51.6</v>
       </c>
       <c r="E20">
-        <v>20868.696534127</v>
+        <v>20868.69653342664</v>
       </c>
       <c r="F20">
         <v>22682.6516</v>
@@ -2490,10 +2490,10 @@
         <v>817.8194999999999</v>
       </c>
       <c r="K20">
-        <v>17.79247367335483</v>
+        <v>17.79247367952485</v>
       </c>
       <c r="L20">
-        <v>1.403653466260386</v>
+        <v>1.323546638748562</v>
       </c>
       <c r="M20">
         <v>2.80670195909425</v>
@@ -2517,16 +2517,16 @@
         <v>915697</v>
       </c>
       <c r="T20">
-        <v>775.5928606987</v>
+        <v>775.5928664207458</v>
       </c>
       <c r="U20">
-        <v>2.018787330314808</v>
+        <v>2.018787330205669</v>
       </c>
       <c r="V20">
         <v>97.40000000000001</v>
       </c>
       <c r="W20">
-        <v>119.406202003127</v>
+        <v>119.4062019967241</v>
       </c>
       <c r="X20">
         <v>29545</v>
@@ -2538,28 +2538,28 @@
         <v>151465</v>
       </c>
       <c r="AA20">
-        <v>995</v>
+        <v>184</v>
       </c>
       <c r="AB20">
-        <v>1532445</v>
+        <v>2135321</v>
       </c>
       <c r="AC20">
-        <v>1768858</v>
+        <v>2628348</v>
       </c>
       <c r="AD20">
-        <v>13735</v>
+        <v>23884</v>
       </c>
       <c r="AE20">
-        <v>8659</v>
+        <v>3892</v>
       </c>
       <c r="AF20">
-        <v>3517.525570553123</v>
+        <v>21296</v>
       </c>
       <c r="AG20">
-        <v>17196</v>
+        <v>16191</v>
       </c>
       <c r="AH20">
-        <v>330408</v>
+        <v>86004</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>51.6</v>
       </c>
       <c r="E21">
-        <v>22404.13890108466</v>
+        <v>22404.13890028</v>
       </c>
       <c r="F21">
         <v>26495.1</v>
@@ -2594,25 +2594,25 @@
         <v>793.3792999999999</v>
       </c>
       <c r="K21">
-        <v>20.02947447169572</v>
+        <v>20.02947447856423</v>
       </c>
       <c r="L21">
-        <v>1.28083828240465</v>
+        <v>1.399088388371675</v>
       </c>
       <c r="M21">
         <v>1.990354782253</v>
       </c>
       <c r="N21">
-        <v>214.7539215639699</v>
+        <v>214.7539215630386</v>
       </c>
       <c r="O21">
-        <v>113.5596061954275</v>
+        <v>113.5596061651595</v>
       </c>
       <c r="P21">
         <v>280</v>
       </c>
       <c r="Q21">
-        <v>98.53897058835719</v>
+        <v>98.53897058842995</v>
       </c>
       <c r="R21">
         <v>42</v>
@@ -2621,49 +2621,49 @@
         <v>1034829</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-13693.46553516388</v>
       </c>
       <c r="U21">
-        <v>1.966971881050995</v>
+        <v>1.966971880923666</v>
       </c>
       <c r="V21">
         <v>97.09999999999999</v>
       </c>
       <c r="W21">
-        <v>122.4571279885713</v>
+        <v>122.4571279811207</v>
       </c>
       <c r="X21">
-        <v>28322.27091436381</v>
+        <v>-22783.98220833692</v>
       </c>
       <c r="Y21">
-        <v>86.11758241686039</v>
+        <v>86.11758241575444</v>
       </c>
       <c r="Z21">
         <v>52735</v>
       </c>
       <c r="AA21">
-        <v>1080</v>
+        <v>198</v>
       </c>
       <c r="AB21">
-        <v>1945451</v>
+        <v>2806421</v>
       </c>
       <c r="AC21">
-        <v>2340261</v>
+        <v>3656095</v>
       </c>
       <c r="AD21">
-        <v>15233</v>
+        <v>26491</v>
       </c>
       <c r="AE21">
-        <v>3620</v>
+        <v>2547</v>
       </c>
       <c r="AF21">
-        <v>2254</v>
+        <v>11729</v>
       </c>
       <c r="AG21">
-        <v>69993</v>
+        <v>14757</v>
       </c>
       <c r="AH21">
-        <v>477229</v>
+        <v>67649</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>50.9</v>
       </c>
       <c r="E22">
-        <v>23992.00388707221</v>
+        <v>23992.00388619304</v>
       </c>
       <c r="F22">
         <v>26832.3503</v>
@@ -2692,82 +2692,82 @@
         <v>60.15</v>
       </c>
       <c r="I22">
-        <v>2.253498451997075</v>
+        <v>2.253498451977066</v>
       </c>
       <c r="J22">
-        <v>1038.056980878115</v>
+        <v>1038.056980863214</v>
       </c>
       <c r="K22">
-        <v>22.63006607431453</v>
+        <v>22.63006608176511</v>
       </c>
       <c r="L22">
-        <v>1.374949653266075</v>
+        <v>1.533651793986693</v>
       </c>
       <c r="M22">
-        <v>2.258705848129466</v>
+        <v>2.258705849759281</v>
       </c>
       <c r="N22">
-        <v>225.1770381778479</v>
+        <v>225.1770381769165</v>
       </c>
       <c r="O22">
-        <v>132.4369321139529</v>
+        <v>132.4369320790283</v>
       </c>
       <c r="P22">
-        <v>147.9920677768391</v>
+        <v>104.9544451218534</v>
       </c>
       <c r="Q22">
-        <v>98.25829463380069</v>
+        <v>98.258294633888</v>
       </c>
       <c r="R22">
-        <v>49.45176470349543</v>
+        <v>49.45176471257582</v>
       </c>
       <c r="S22">
         <v>1005350</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-29418.54284334183</v>
       </c>
       <c r="U22">
-        <v>1.899691014859854</v>
+        <v>1.899691014710697</v>
       </c>
       <c r="V22">
-        <v>91.16339525976218</v>
+        <v>91.16339525347576</v>
       </c>
       <c r="W22">
-        <v>125.1780911427923</v>
+        <v>125.1780911340611</v>
       </c>
       <c r="X22">
-        <v>74312.59430398786</v>
+        <v>105192.8682312793</v>
       </c>
       <c r="Y22">
-        <v>84.71679120772751</v>
+        <v>84.71679120638873</v>
       </c>
       <c r="Z22">
-        <v>119935.7303862572</v>
+        <v>119935.7303957939</v>
       </c>
       <c r="AA22">
-        <v>1228</v>
+        <v>231</v>
       </c>
       <c r="AB22">
-        <v>2138739.2</v>
+        <v>2799881.8</v>
       </c>
       <c r="AC22">
-        <v>2827911.4</v>
+        <v>3706536.3</v>
       </c>
       <c r="AD22">
-        <v>20273</v>
+        <v>36251</v>
       </c>
       <c r="AE22">
-        <v>3394.6</v>
+        <v>100652</v>
       </c>
       <c r="AF22">
-        <v>1098.1</v>
+        <v>5119.8</v>
       </c>
       <c r="AG22">
-        <v>14779.9</v>
+        <v>135732.2</v>
       </c>
       <c r="AH22">
-        <v>460293.1</v>
+        <v>52913.2</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>52.5</v>
       </c>
       <c r="E23">
-        <v>25632.29149211943</v>
+        <v>25632.29149113595</v>
       </c>
       <c r="F23">
-        <v>28750.1316402778</v>
+        <v>28750.13164054602</v>
       </c>
       <c r="G23">
         <v>-2.11</v>
       </c>
       <c r="H23">
-        <v>62.19129902022542</v>
+        <v>62.19129902025452</v>
       </c>
       <c r="I23">
-        <v>2.096565531453962</v>
+        <v>2.096565531435772</v>
       </c>
       <c r="J23">
-        <v>1178.595617819577</v>
+        <v>1178.595617804676</v>
       </c>
       <c r="K23">
-        <v>25.59424848121125</v>
+        <v>25.59424848936033</v>
       </c>
       <c r="L23">
-        <v>1.336605715028088</v>
+        <v>1.251558115715626</v>
       </c>
       <c r="M23">
-        <v>3.162051160121337</v>
+        <v>3.162051162216812</v>
       </c>
       <c r="N23">
-        <v>236.6202270316426</v>
+        <v>236.6202270302456</v>
       </c>
       <c r="O23">
-        <v>152.7736925049685</v>
+        <v>152.7736924663186</v>
       </c>
       <c r="P23">
-        <v>138.836654420691</v>
+        <v>199.0711000305843</v>
       </c>
       <c r="Q23">
-        <v>97.95534055744793</v>
+        <v>97.95534055755707</v>
       </c>
       <c r="R23">
-        <v>56.91382352565415</v>
+        <v>56.91382353636436</v>
       </c>
       <c r="S23">
-        <v>1178603.974572182</v>
+        <v>1178603.974556923</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-46399.63906002045</v>
       </c>
       <c r="U23">
-        <v>1.816944731723197</v>
+        <v>1.816944731548574</v>
       </c>
       <c r="V23">
-        <v>87.60394015279599</v>
+        <v>87.60394014557824</v>
       </c>
       <c r="W23">
-        <v>127.569091465557</v>
+        <v>127.5690914554289</v>
       </c>
       <c r="X23">
-        <v>6389.383284430161</v>
+        <v>47761.33352245225</v>
       </c>
       <c r="Y23">
-        <v>83.15069780062186</v>
+        <v>83.15069779899204</v>
       </c>
       <c r="Z23">
-        <v>112813.6452445984</v>
+        <v>112813.6452569962</v>
       </c>
       <c r="AA23">
-        <v>1306.931818189099</v>
+        <v>249.000000024214</v>
       </c>
       <c r="AB23">
-        <v>2551306.218315125</v>
+        <v>3197479.94114685</v>
       </c>
       <c r="AC23">
-        <v>3200634.109558105</v>
+        <v>4209481.77986145</v>
       </c>
       <c r="AD23">
-        <v>21297.8409101963</v>
+        <v>38026.7954556942</v>
       </c>
       <c r="AE23">
-        <v>2005.028589863182</v>
+        <v>50112.3425788797</v>
       </c>
       <c r="AF23">
-        <v>1654.612870058126</v>
+        <v>15634.4148768168</v>
       </c>
       <c r="AG23">
-        <v>2933.416631450326</v>
+        <v>16578.8322119945</v>
       </c>
       <c r="AH23">
-        <v>610400.7682800293</v>
+        <v>69620.5835581987</v>
       </c>
     </row>
   </sheetData>
